--- a/Slides/Tex/lecture_includes/google_scholar_did.xlsx
+++ b/Slides/Tex/lecture_includes/google_scholar_did.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scott_cunningham/Documents/Causal-Inference-2/Slides/Tex/lecture_includes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB7C61BA-176D-FB4A-AF9F-2FBEDD18032B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AAC7E83-99E9-F44B-B6D9-1EB132543DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-36140" yWindow="500" windowWidth="34420" windowHeight="21100" xr2:uid="{4E948A00-989C-8C4A-9363-AFB9B32B4834}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>Year</t>
   </si>
@@ -66,6 +66,18 @@
   </si>
   <si>
     <t>DID_ES</t>
+  </si>
+  <si>
+    <t>CT</t>
+  </si>
+  <si>
+    <t>DID_CT</t>
+  </si>
+  <si>
+    <t>CT_ES</t>
+  </si>
+  <si>
+    <t>CT_ES_DID</t>
   </si>
 </sst>
 </file>
@@ -109,10 +121,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1561,15 +1572,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD85249C-985F-FD43-91AD-6F677FBBC357}">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F34"/>
+      <selection activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1588,12 +1599,24 @@
       <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1990</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2">
         <v>182</v>
       </c>
       <c r="C2">
@@ -1608,12 +1631,18 @@
       <c r="F2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2">
+        <v>286</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1991</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3">
         <v>196</v>
       </c>
       <c r="C3">
@@ -1628,12 +1657,18 @@
       <c r="F3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3">
+        <v>357</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1992</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4">
         <v>220</v>
       </c>
       <c r="C4">
@@ -1648,12 +1683,18 @@
       <c r="F4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4">
+        <v>405</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1993</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5">
         <v>183</v>
       </c>
       <c r="C5">
@@ -1668,12 +1709,18 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5">
+        <v>476</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1994</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6">
         <v>262</v>
       </c>
       <c r="C6">
@@ -1688,12 +1735,18 @@
       <c r="F6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6">
+        <v>487</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1995</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7">
         <v>241</v>
       </c>
       <c r="C7">
@@ -1708,12 +1761,18 @@
       <c r="F7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7">
+        <v>538</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1996</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8">
         <v>260</v>
       </c>
       <c r="C8">
@@ -1728,12 +1787,18 @@
       <c r="F8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8">
+        <v>627</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1997</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9">
         <v>298</v>
       </c>
       <c r="C9">
@@ -1748,12 +1813,18 @@
       <c r="F9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9">
+        <v>663</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1998</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10">
         <v>301</v>
       </c>
       <c r="C10">
@@ -1768,12 +1839,18 @@
       <c r="F10">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10">
+        <v>696</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1999</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11">
         <v>315</v>
       </c>
       <c r="C11">
@@ -1788,8 +1865,14 @@
       <c r="F11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G11">
+        <v>802</v>
+      </c>
+      <c r="H11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2000</v>
       </c>
@@ -1808,8 +1891,14 @@
       <c r="F12">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G12">
+        <v>971</v>
+      </c>
+      <c r="H12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2001</v>
       </c>
@@ -1828,8 +1917,14 @@
       <c r="F13">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G13">
+        <v>1100</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2002</v>
       </c>
@@ -1848,8 +1943,14 @@
       <c r="F14">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G14">
+        <v>1120</v>
+      </c>
+      <c r="H14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2003</v>
       </c>
@@ -1868,8 +1969,14 @@
       <c r="F15">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G15">
+        <v>1460</v>
+      </c>
+      <c r="H15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2004</v>
       </c>
@@ -1888,8 +1995,14 @@
       <c r="F16">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G16">
+        <v>1340</v>
+      </c>
+      <c r="H16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2005</v>
       </c>
@@ -1908,8 +2021,14 @@
       <c r="F17">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G17">
+        <v>1490</v>
+      </c>
+      <c r="H17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2006</v>
       </c>
@@ -1928,8 +2047,14 @@
       <c r="F18">
         <v>22</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G18">
+        <v>1620</v>
+      </c>
+      <c r="H18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2007</v>
       </c>
@@ -1948,8 +2073,14 @@
       <c r="F19">
         <v>22</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G19">
+        <v>1840</v>
+      </c>
+      <c r="H19">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2008</v>
       </c>
@@ -1968,8 +2099,14 @@
       <c r="F20">
         <v>33</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G20">
+        <v>1930</v>
+      </c>
+      <c r="H20" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2009</v>
       </c>
@@ -1988,8 +2125,14 @@
       <c r="F21">
         <v>46</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G21">
+        <v>2140</v>
+      </c>
+      <c r="H21">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2010</v>
       </c>
@@ -2008,8 +2151,14 @@
       <c r="F22">
         <v>52</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G22">
+        <v>2330</v>
+      </c>
+      <c r="H22">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2011</v>
       </c>
@@ -2028,8 +2177,14 @@
       <c r="F23">
         <v>71</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G23">
+        <v>2640</v>
+      </c>
+      <c r="H23">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2012</v>
       </c>
@@ -2048,8 +2203,14 @@
       <c r="F24">
         <v>112</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G24">
+        <v>3000</v>
+      </c>
+      <c r="H24">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2013</v>
       </c>
@@ -2068,8 +2229,14 @@
       <c r="F25">
         <v>132</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G25">
+        <v>3190</v>
+      </c>
+      <c r="H25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2014</v>
       </c>
@@ -2088,8 +2255,14 @@
       <c r="F26">
         <v>184</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G26">
+        <v>3540</v>
+      </c>
+      <c r="H26">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2015</v>
       </c>
@@ -2108,8 +2281,14 @@
       <c r="F27">
         <v>243</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G27">
+        <v>3450</v>
+      </c>
+      <c r="H27">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2016</v>
       </c>
@@ -2128,8 +2307,14 @@
       <c r="F28">
         <v>406</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G28">
+        <v>3840</v>
+      </c>
+      <c r="H28">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2017</v>
       </c>
@@ -2148,8 +2333,14 @@
       <c r="F29">
         <v>503</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G29">
+        <v>4090</v>
+      </c>
+      <c r="H29">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2018</v>
       </c>
@@ -2168,8 +2359,14 @@
       <c r="F30">
         <v>738</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G30">
+        <v>4120</v>
+      </c>
+      <c r="H30">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2019</v>
       </c>
@@ -2188,8 +2385,14 @@
       <c r="F31">
         <v>1030</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G31">
+        <v>4310</v>
+      </c>
+      <c r="H31">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2020</v>
       </c>
@@ -2208,8 +2411,14 @@
       <c r="F32">
         <v>1490</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G32">
+        <v>4760</v>
+      </c>
+      <c r="H32">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2021</v>
       </c>
@@ -2228,8 +2437,14 @@
       <c r="F33">
         <v>2460</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G33">
+        <v>5040</v>
+      </c>
+      <c r="H33">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>2022</v>
       </c>
@@ -2247,6 +2462,12 @@
       </c>
       <c r="F34">
         <v>3880</v>
+      </c>
+      <c r="G34">
+        <v>5110</v>
+      </c>
+      <c r="H34">
+        <v>735</v>
       </c>
     </row>
   </sheetData>

--- a/Slides/Tex/lecture_includes/google_scholar_did.xlsx
+++ b/Slides/Tex/lecture_includes/google_scholar_did.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scott_cunningham/Documents/Causal-Inference-2/Slides/Tex/lecture_includes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scunning/Causal-Inference-2/Slides/Tex/lecture_includes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AAC7E83-99E9-F44B-B6D9-1EB132543DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A2D525-9555-CB4D-B069-9D7237838DD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36140" yWindow="500" windowWidth="34420" windowHeight="21100" xr2:uid="{4E948A00-989C-8C4A-9363-AFB9B32B4834}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20320" xr2:uid="{4E948A00-989C-8C4A-9363-AFB9B32B4834}"/>
   </bookViews>
   <sheets>
     <sheet name="PT DID" sheetId="1" r:id="rId1"/>
@@ -101,15 +101,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -117,13 +129,60 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1575,7 +1634,7 @@
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T16" sqref="T16"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1590,19 +1649,19 @@
       <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -1622,19 +1681,19 @@
       <c r="C2">
         <v>10</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+      <c r="E2" s="9">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3">
         <v>0</v>
       </c>
       <c r="G2">
         <v>286</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1648,19 +1707,19 @@
       <c r="C3">
         <v>11</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="9">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
         <v>1</v>
       </c>
       <c r="G3">
         <v>357</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1674,19 +1733,19 @@
       <c r="C4">
         <v>18</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="9">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
         <v>0</v>
       </c>
       <c r="G4">
         <v>405</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1700,19 +1759,19 @@
       <c r="C5">
         <v>11</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
         <v>0</v>
       </c>
       <c r="G5">
         <v>476</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1726,19 +1785,19 @@
       <c r="C6">
         <v>20</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
         <v>1</v>
       </c>
       <c r="G6">
         <v>487</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1752,19 +1811,19 @@
       <c r="C7">
         <v>26</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="9">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
         <v>0</v>
       </c>
       <c r="G7">
         <v>538</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1778,19 +1837,19 @@
       <c r="C8">
         <v>49</v>
       </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
         <v>1</v>
       </c>
       <c r="G8">
         <v>627</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1804,19 +1863,19 @@
       <c r="C9">
         <v>47</v>
       </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="9">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
         <v>1</v>
       </c>
       <c r="G9">
         <v>663</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1830,23 +1889,23 @@
       <c r="C10">
         <v>88</v>
       </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="9">
         <v>1</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="3">
         <v>2</v>
       </c>
       <c r="G10">
         <v>696</v>
       </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1999</v>
       </c>
@@ -1856,45 +1915,45 @@
       <c r="C11">
         <v>103</v>
       </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+      <c r="E11" s="9">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3">
         <v>0</v>
       </c>
       <c r="G11">
         <v>802</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12">
+    <row r="12" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
         <v>2000</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="5">
         <v>345</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="5">
         <v>147</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="6">
         <v>2</v>
       </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
+      <c r="E12" s="10">
+        <v>0</v>
+      </c>
+      <c r="F12" s="6">
         <v>3</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="5">
         <v>971</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="7">
         <v>4</v>
       </c>
     </row>
@@ -1908,19 +1967,19 @@
       <c r="C13">
         <v>189</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="3">
         <v>1</v>
       </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
+      <c r="E13" s="9">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3">
         <v>5</v>
       </c>
       <c r="G13">
         <v>1100</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="3">
         <v>2</v>
       </c>
     </row>
@@ -1934,19 +1993,19 @@
       <c r="C14">
         <v>246</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="3">
         <v>1</v>
       </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
+      <c r="E14" s="9">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>4</v>
       </c>
       <c r="G14">
         <v>1120</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="3">
         <v>6</v>
       </c>
     </row>
@@ -1960,19 +2019,19 @@
       <c r="C15">
         <v>379</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="3">
         <v>2</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="9">
         <v>2</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="3">
         <v>8</v>
       </c>
       <c r="G15">
         <v>1460</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="3">
         <v>5</v>
       </c>
     </row>
@@ -1986,19 +2045,19 @@
       <c r="C16">
         <v>535</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="3">
         <v>1</v>
       </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
+      <c r="E16" s="9">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3">
         <v>5</v>
       </c>
       <c r="G16">
         <v>1340</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="3">
         <v>9</v>
       </c>
     </row>
@@ -2012,19 +2071,19 @@
       <c r="C17">
         <v>537</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="3">
         <v>3</v>
       </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
+      <c r="E17" s="9">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
         <v>17</v>
       </c>
       <c r="G17">
         <v>1490</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="3">
         <v>9</v>
       </c>
     </row>
@@ -2038,19 +2097,19 @@
       <c r="C18">
         <v>733</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="3">
         <v>4</v>
       </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
+      <c r="E18" s="9">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
         <v>22</v>
       </c>
       <c r="G18">
         <v>1620</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="3">
         <v>20</v>
       </c>
     </row>
@@ -2064,19 +2123,19 @@
       <c r="C19">
         <v>933</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="3">
         <v>13</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="11">
         <v>2</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="3">
         <v>22</v>
       </c>
       <c r="G19">
         <v>1840</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="3">
         <v>21</v>
       </c>
     </row>
@@ -2090,19 +2149,19 @@
       <c r="C20">
         <v>1180</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="3">
         <v>15</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="11">
         <v>2</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="3">
         <v>33</v>
       </c>
       <c r="G20">
         <v>1930</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H20" s="2">
         <v>27</v>
       </c>
     </row>
@@ -2116,19 +2175,19 @@
       <c r="C21">
         <v>1370</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="3">
         <v>28</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="11">
         <v>4</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="3">
         <v>46</v>
       </c>
       <c r="G21">
         <v>2140</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="3">
         <v>27</v>
       </c>
     </row>
@@ -2142,19 +2201,19 @@
       <c r="C22">
         <v>1670</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="3">
         <v>41</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="11">
         <v>2</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="3">
         <v>52</v>
       </c>
       <c r="G22">
         <v>2330</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="3">
         <v>37</v>
       </c>
     </row>
@@ -2168,19 +2227,19 @@
       <c r="C23">
         <v>2100</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="3">
         <v>48</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="11">
         <v>8</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="3">
         <v>71</v>
       </c>
       <c r="G23">
         <v>2640</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="3">
         <v>68</v>
       </c>
     </row>
@@ -2194,19 +2253,19 @@
       <c r="C24">
         <v>2620</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="3">
         <v>61</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="11">
         <v>11</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="3">
         <v>112</v>
       </c>
       <c r="G24">
         <v>3000</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="3">
         <v>67</v>
       </c>
     </row>
@@ -2220,19 +2279,19 @@
       <c r="C25">
         <v>3020</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="3">
         <v>136</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="11">
         <v>19</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="3">
         <v>132</v>
       </c>
       <c r="G25">
         <v>3190</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="3">
         <v>114</v>
       </c>
     </row>
@@ -2246,19 +2305,19 @@
       <c r="C26">
         <v>3790</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="3">
         <v>209</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="11">
         <v>34</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="3">
         <v>184</v>
       </c>
       <c r="G26">
         <v>3540</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="3">
         <v>150</v>
       </c>
     </row>
@@ -2272,19 +2331,19 @@
       <c r="C27">
         <v>4480</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="3">
         <v>335</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="11">
         <v>50</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="3">
         <v>243</v>
       </c>
       <c r="G27">
         <v>3450</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="3">
         <v>159</v>
       </c>
     </row>
@@ -2298,19 +2357,19 @@
       <c r="C28">
         <v>5620</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="3">
         <v>556</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="11">
         <v>118</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="3">
         <v>406</v>
       </c>
       <c r="G28">
         <v>3840</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="3">
         <v>205</v>
       </c>
     </row>
@@ -2324,19 +2383,19 @@
       <c r="C29">
         <v>6580</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="3">
         <v>802</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="11">
         <v>200</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="3">
         <v>503</v>
       </c>
       <c r="G29">
         <v>4090</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="3">
         <v>284</v>
       </c>
     </row>
@@ -2350,19 +2409,19 @@
       <c r="C30">
         <v>7780</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="3">
         <v>1230</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="11">
         <v>333</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="3">
         <v>738</v>
       </c>
       <c r="G30">
         <v>4120</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="3">
         <v>359</v>
       </c>
     </row>
@@ -2376,19 +2435,19 @@
       <c r="C31">
         <v>8930</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="3">
         <v>1720</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="11">
         <v>547</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="3">
         <v>1030</v>
       </c>
       <c r="G31">
         <v>4310</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="3">
         <v>443</v>
       </c>
     </row>
@@ -2402,19 +2461,19 @@
       <c r="C32">
         <v>10700</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="3">
         <v>2190</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="11">
         <v>815</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="3">
         <v>1490</v>
       </c>
       <c r="G32">
         <v>4760</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="3">
         <v>548</v>
       </c>
     </row>
@@ -2428,19 +2487,19 @@
       <c r="C33">
         <v>13300</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="3">
         <v>3240</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="11">
         <v>1460</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="3">
         <v>2460</v>
       </c>
       <c r="G33">
         <v>5040</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="3">
         <v>606</v>
       </c>
     </row>
@@ -2454,19 +2513,19 @@
       <c r="C34">
         <v>16000</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="3">
         <v>4270</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="11">
         <v>2120</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="3">
         <v>3880</v>
       </c>
       <c r="G34">
         <v>5110</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="3">
         <v>735</v>
       </c>
     </row>

--- a/Slides/Tex/lecture_includes/google_scholar_did.xlsx
+++ b/Slides/Tex/lecture_includes/google_scholar_did.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scott_cunningham/Documents/Causal-Inference-2/Slides/Tex/lecture_includes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AAC7E83-99E9-F44B-B6D9-1EB132543DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C9AD09-3811-194D-9B74-57FED31316C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-36140" yWindow="500" windowWidth="34420" windowHeight="21100" xr2:uid="{4E948A00-989C-8C4A-9363-AFB9B32B4834}"/>
   </bookViews>
@@ -1575,7 +1575,7 @@
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T16" sqref="T16"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Slides/Tex/lecture_includes/google_scholar_did.xlsx
+++ b/Slides/Tex/lecture_includes/google_scholar_did.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scott_cunningham/Documents/Causal-Inference-2/Slides/Tex/lecture_includes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C9AD09-3811-194D-9B74-57FED31316C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808D25B0-C740-3143-96BA-7589F38F72DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-36140" yWindow="500" windowWidth="34420" windowHeight="21100" xr2:uid="{4E948A00-989C-8C4A-9363-AFB9B32B4834}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>Year</t>
   </si>
@@ -74,10 +74,19 @@
     <t>DID_CT</t>
   </si>
   <si>
-    <t>CT_ES</t>
+    <t>DID_ATT</t>
   </si>
   <si>
-    <t>CT_ES_DID</t>
+    <t>DID_HET</t>
+  </si>
+  <si>
+    <t>DID_TWFE</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>TWFE</t>
   </si>
 </sst>
 </file>
@@ -101,15 +110,33 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -117,13 +144,113 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1572,15 +1699,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD85249C-985F-FD43-91AD-6F677FBBC357}">
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:P34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1605,869 +1732,1274 @@
       <c r="H1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="K1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
         <v>1990</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="4">
         <v>182</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="4">
         <v>10</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
         <v>286</v>
       </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="H2" s="4">
+        <v>0</v>
+      </c>
+      <c r="I2" s="9">
+        <v>0</v>
+      </c>
+      <c r="J2" s="10">
+        <v>0</v>
+      </c>
+      <c r="K2" s="11">
+        <v>12</v>
+      </c>
+      <c r="L2" s="10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
         <v>1991</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="4">
         <v>196</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="4">
         <v>11</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4">
         <v>1</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="4">
         <v>357</v>
       </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
+      <c r="I3" s="9">
+        <v>0</v>
+      </c>
+      <c r="J3" s="10">
+        <v>0</v>
+      </c>
+      <c r="K3" s="11">
+        <v>10</v>
+      </c>
+      <c r="L3" s="10">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
         <v>1992</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="4">
         <v>220</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="4">
         <v>18</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
         <v>405</v>
       </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="9">
+        <v>0</v>
+      </c>
+      <c r="J4" s="10">
+        <v>0</v>
+      </c>
+      <c r="K4" s="11">
+        <v>13</v>
+      </c>
+      <c r="L4" s="10">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
         <v>1993</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="4">
         <v>183</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="4">
         <v>11</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
         <v>476</v>
       </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
+      <c r="I5" s="9">
+        <v>0</v>
+      </c>
+      <c r="J5" s="10">
+        <v>0</v>
+      </c>
+      <c r="K5" s="11">
+        <v>16</v>
+      </c>
+      <c r="L5" s="10">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
         <v>1994</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="4">
         <v>262</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="4">
         <v>20</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
         <v>1</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="4">
         <v>487</v>
       </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+      <c r="I6" s="9">
+        <v>0</v>
+      </c>
+      <c r="J6" s="10">
+        <v>0</v>
+      </c>
+      <c r="K6" s="11">
+        <v>13</v>
+      </c>
+      <c r="L6" s="10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
         <v>1995</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="4">
         <v>241</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="4">
         <v>26</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
         <v>538</v>
       </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
+      <c r="I7" s="9">
+        <v>1</v>
+      </c>
+      <c r="J7" s="10">
+        <v>0</v>
+      </c>
+      <c r="K7" s="11">
+        <v>12</v>
+      </c>
+      <c r="L7" s="10">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
         <v>1996</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="4">
         <v>260</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="4">
         <v>49</v>
       </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
         <v>1</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="4">
         <v>627</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="I8" s="9">
+        <v>2</v>
+      </c>
+      <c r="J8" s="10">
+        <v>0</v>
+      </c>
+      <c r="K8" s="11">
+        <v>24</v>
+      </c>
+      <c r="L8" s="10">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
         <v>1997</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="4">
         <v>298</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="4">
         <v>47</v>
       </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4">
         <v>1</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="4">
         <v>663</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="I9" s="9">
+        <v>0</v>
+      </c>
+      <c r="J9" s="10">
+        <v>2</v>
+      </c>
+      <c r="K9" s="11">
+        <v>24</v>
+      </c>
+      <c r="L9" s="10">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
         <v>1998</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="4">
         <v>301</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="4">
         <v>88</v>
       </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
         <v>1</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="4">
         <v>2</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="4">
         <v>696</v>
       </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="H10" s="4">
+        <v>0</v>
+      </c>
+      <c r="I10" s="9">
+        <v>4</v>
+      </c>
+      <c r="J10" s="10">
+        <v>4</v>
+      </c>
+      <c r="K10" s="11">
+        <v>23</v>
+      </c>
+      <c r="L10" s="10">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
         <v>1999</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="4">
         <v>315</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="4">
         <v>103</v>
       </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
         <v>802</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="I11" s="9">
+        <v>2</v>
+      </c>
+      <c r="J11" s="10">
+        <v>1</v>
+      </c>
+      <c r="K11" s="11">
+        <v>26</v>
+      </c>
+      <c r="L11" s="10">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
         <v>2000</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="4">
         <v>345</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="4">
         <v>147</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="4">
         <v>2</v>
       </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
+      <c r="E12" s="4">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
         <v>3</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="4">
         <v>971</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="I12" s="9">
+        <v>3</v>
+      </c>
+      <c r="J12" s="10">
+        <v>4</v>
+      </c>
+      <c r="K12" s="11">
+        <v>30</v>
+      </c>
+      <c r="L12" s="10">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
         <v>2001</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="4">
         <v>444</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="4">
         <v>189</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="4">
         <v>1</v>
       </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
+      <c r="E13" s="4">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4">
         <v>5</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="4">
         <v>1100</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="I13" s="9">
+        <v>4</v>
+      </c>
+      <c r="J13" s="10">
+        <v>3</v>
+      </c>
+      <c r="K13" s="11">
+        <v>26</v>
+      </c>
+      <c r="L13" s="10">
+        <v>73</v>
+      </c>
+      <c r="P13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
         <v>2002</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="4">
         <v>361</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="4">
         <v>246</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="4">
         <v>1</v>
       </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
+      <c r="E14" s="4">
+        <v>0</v>
+      </c>
+      <c r="F14" s="4">
         <v>4</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="4">
         <v>1120</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="4">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="I14" s="9">
+        <v>6</v>
+      </c>
+      <c r="J14" s="10">
+        <v>13</v>
+      </c>
+      <c r="K14" s="11">
+        <v>40</v>
+      </c>
+      <c r="L14" s="10">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
         <v>2003</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="4">
         <v>361</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="4">
         <v>379</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="4">
         <v>2</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="4">
         <v>2</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="4">
         <v>8</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="4">
         <v>1460</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="I15" s="9">
+        <v>14</v>
+      </c>
+      <c r="J15" s="10">
+        <v>5</v>
+      </c>
+      <c r="K15" s="11">
+        <v>51</v>
+      </c>
+      <c r="L15" s="10">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
         <v>2004</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="4">
         <v>398</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="4">
         <v>535</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="4">
         <v>1</v>
       </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
+      <c r="E16" s="4">
+        <v>0</v>
+      </c>
+      <c r="F16" s="4">
         <v>5</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="4">
         <v>1340</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="4">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17">
+      <c r="I16" s="9">
+        <v>36</v>
+      </c>
+      <c r="J16" s="10">
+        <v>14</v>
+      </c>
+      <c r="K16" s="11">
+        <v>70</v>
+      </c>
+      <c r="L16" s="10">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
         <v>2005</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="4">
         <v>490</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="4">
         <v>537</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="4">
         <v>3</v>
       </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
+      <c r="E17" s="4">
+        <v>0</v>
+      </c>
+      <c r="F17" s="4">
         <v>17</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="4">
         <v>1490</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="4">
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18">
+      <c r="I17" s="9">
+        <v>45</v>
+      </c>
+      <c r="J17" s="10">
+        <v>12</v>
+      </c>
+      <c r="K17" s="11">
+        <v>73</v>
+      </c>
+      <c r="L17" s="10">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
         <v>2006</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="4">
         <v>452</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="4">
         <v>733</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="4">
         <v>4</v>
       </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
+      <c r="E18" s="4">
+        <v>0</v>
+      </c>
+      <c r="F18" s="4">
         <v>22</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="4">
         <v>1620</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19">
+      <c r="I18" s="9">
+        <v>79</v>
+      </c>
+      <c r="J18" s="10">
+        <v>21</v>
+      </c>
+      <c r="K18" s="11">
+        <v>75</v>
+      </c>
+      <c r="L18" s="10">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
         <v>2007</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="4">
         <v>487</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="4">
         <v>933</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="4">
         <v>13</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="4">
         <v>2</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="4">
         <v>22</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="4">
         <v>1840</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="4">
         <v>21</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20">
+      <c r="I19" s="9">
+        <v>101</v>
+      </c>
+      <c r="J19" s="10">
+        <v>25</v>
+      </c>
+      <c r="K19" s="11">
+        <v>80</v>
+      </c>
+      <c r="L19" s="10">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
         <v>2008</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="4">
         <v>513</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="4">
         <v>1180</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="4">
         <v>15</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="4">
         <v>2</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="4">
         <v>33</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="4">
         <v>1930</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H20" s="5">
         <v>27</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21">
+      <c r="I20" s="9">
+        <v>156</v>
+      </c>
+      <c r="J20" s="10">
+        <v>35</v>
+      </c>
+      <c r="K20" s="11">
+        <v>88</v>
+      </c>
+      <c r="L20" s="10">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
         <v>2009</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="4">
         <v>582</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="4">
         <v>1370</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="4">
         <v>28</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="4">
         <v>4</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="4">
         <v>46</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="4">
         <v>2140</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="4">
         <v>27</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22">
+      <c r="I21" s="9">
+        <v>144</v>
+      </c>
+      <c r="J21" s="10">
+        <v>35</v>
+      </c>
+      <c r="K21" s="11">
+        <v>101</v>
+      </c>
+      <c r="L21" s="10">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
         <v>2010</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="4">
         <v>592</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="4">
         <v>1670</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="4">
         <v>41</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="4">
         <v>2</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="4">
         <v>52</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="4">
         <v>2330</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="4">
         <v>37</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23">
+      <c r="I22" s="9">
+        <v>213</v>
+      </c>
+      <c r="J22" s="10">
+        <v>43</v>
+      </c>
+      <c r="K22" s="11">
+        <v>111</v>
+      </c>
+      <c r="L22" s="10">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
         <v>2011</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="3">
         <v>639</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="3">
         <v>2100</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="3">
         <v>48</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="3">
         <v>8</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="3">
         <v>71</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="3">
         <v>2640</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="3">
         <v>68</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24">
+      <c r="I23" s="12">
+        <v>222</v>
+      </c>
+      <c r="J23" s="13">
+        <v>38</v>
+      </c>
+      <c r="K23" s="14">
+        <v>133</v>
+      </c>
+      <c r="L23" s="10">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
         <v>2012</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="3">
         <v>725</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="3">
         <v>2620</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="3">
         <v>61</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="3">
         <v>11</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="3">
         <v>112</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="3">
         <v>3000</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="3">
         <v>67</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25">
+      <c r="I24" s="12">
+        <v>252</v>
+      </c>
+      <c r="J24" s="13">
+        <v>65</v>
+      </c>
+      <c r="K24" s="14">
+        <v>155</v>
+      </c>
+      <c r="L24" s="10">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
         <v>2013</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="3">
         <v>869</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="3">
         <v>3020</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="3">
         <v>136</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="3">
         <v>19</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="3">
         <v>132</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="3">
         <v>3190</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="3">
         <v>114</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26">
+      <c r="I25" s="12">
+        <v>274</v>
+      </c>
+      <c r="J25" s="13">
+        <v>82</v>
+      </c>
+      <c r="K25" s="14">
+        <v>188</v>
+      </c>
+      <c r="L25" s="10">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
         <v>2014</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="3">
         <v>1010</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="3">
         <v>3790</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="3">
         <v>209</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="3">
         <v>34</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="3">
         <v>184</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="3">
         <v>3540</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="3">
         <v>150</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27">
+      <c r="I26" s="12">
+        <v>311</v>
+      </c>
+      <c r="J26" s="13">
+        <v>101</v>
+      </c>
+      <c r="K26" s="14">
+        <v>182</v>
+      </c>
+      <c r="L26" s="10">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
         <v>2015</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="3">
         <v>1160</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="3">
         <v>4480</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="3">
         <v>335</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="3">
         <v>50</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="3">
         <v>243</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="3">
         <v>3450</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="3">
         <v>159</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28">
+      <c r="I27" s="12">
+        <v>375</v>
+      </c>
+      <c r="J27" s="13">
+        <v>139</v>
+      </c>
+      <c r="K27" s="14">
+        <v>211</v>
+      </c>
+      <c r="L27" s="10">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
         <v>2016</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="3">
         <v>1480</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="3">
         <v>5620</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="3">
         <v>556</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="3">
         <v>118</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="3">
         <v>406</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="3">
         <v>3840</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="3">
         <v>205</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29">
+      <c r="I28" s="12">
+        <v>485</v>
+      </c>
+      <c r="J28" s="13">
+        <v>164</v>
+      </c>
+      <c r="K28" s="14">
+        <v>258</v>
+      </c>
+      <c r="L28" s="10">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
         <v>2017</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="3">
         <v>1870</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="3">
         <v>6580</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="3">
         <v>802</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="3">
         <v>200</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="3">
         <v>503</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="3">
         <v>4090</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="3">
         <v>284</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30">
+      <c r="I29" s="12">
+        <v>486</v>
+      </c>
+      <c r="J29" s="13">
+        <v>201</v>
+      </c>
+      <c r="K29" s="14">
+        <v>297</v>
+      </c>
+      <c r="L29" s="10">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
         <v>2018</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="2">
         <v>2410</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="2">
         <v>7780</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="2">
         <v>1230</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="2">
         <v>333</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="2">
         <v>738</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="2">
         <v>4120</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="2">
         <v>359</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31">
+      <c r="I30" s="15">
+        <v>521</v>
+      </c>
+      <c r="J30" s="16">
+        <v>282</v>
+      </c>
+      <c r="K30" s="17">
+        <v>390</v>
+      </c>
+      <c r="L30" s="10">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
         <v>2019</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="2">
         <v>3050</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="2">
         <v>8930</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="2">
         <v>1720</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="2">
         <v>547</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="2">
         <v>1030</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="2">
         <v>4310</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="2">
         <v>443</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32">
+      <c r="I31" s="15">
+        <v>672</v>
+      </c>
+      <c r="J31" s="16">
+        <v>403</v>
+      </c>
+      <c r="K31" s="17">
+        <v>543</v>
+      </c>
+      <c r="L31" s="10">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
         <v>2020</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="2">
         <v>3580</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="2">
         <v>10700</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="2">
         <v>2190</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="2">
         <v>815</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="2">
         <v>1490</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="2">
         <v>4760</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="2">
         <v>548</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33">
+      <c r="I32" s="15">
+        <v>777</v>
+      </c>
+      <c r="J32" s="16">
+        <v>500</v>
+      </c>
+      <c r="K32" s="17">
+        <v>719</v>
+      </c>
+      <c r="L32" s="10">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
         <v>2021</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="2">
         <v>4970</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="2">
         <v>13300</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="2">
         <v>3240</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="2">
         <v>1460</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="2">
         <v>2460</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="2">
         <v>5040</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="2">
         <v>606</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34">
+      <c r="I33" s="15">
+        <v>1110</v>
+      </c>
+      <c r="J33" s="16">
+        <v>978</v>
+      </c>
+      <c r="K33" s="17">
+        <v>1640</v>
+      </c>
+      <c r="L33" s="10">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
         <v>2022</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="2">
         <v>6580</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="2">
         <v>16000</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="2">
         <v>4270</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="2">
         <v>2120</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="2">
         <v>3880</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="2">
         <v>5110</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="2">
         <v>735</v>
+      </c>
+      <c r="I34" s="18">
+        <v>1490</v>
+      </c>
+      <c r="J34" s="19">
+        <v>1690</v>
+      </c>
+      <c r="K34" s="20">
+        <v>2620</v>
+      </c>
+      <c r="L34" s="10">
+        <v>3450</v>
       </c>
     </row>
   </sheetData>

--- a/Slides/Tex/lecture_includes/google_scholar_did.xlsx
+++ b/Slides/Tex/lecture_includes/google_scholar_did.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scott_cunningham/Documents/Causal-Inference-2/Slides/Tex/lecture_includes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scunning/Causal-Inference-2/Slides/Tex/lecture_includes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808D25B0-C740-3143-96BA-7589F38F72DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25485B6E-97E9-A84A-9811-F7D132C70942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36140" yWindow="500" windowWidth="34420" windowHeight="21100" xr2:uid="{4E948A00-989C-8C4A-9363-AFB9B32B4834}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20320" xr2:uid="{4E948A00-989C-8C4A-9363-AFB9B32B4834}"/>
   </bookViews>
   <sheets>
     <sheet name="PT DID" sheetId="1" r:id="rId1"/>
@@ -136,7 +136,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -224,33 +224,69 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1702,502 +1738,502 @@
   <dimension ref="A1:P34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="L1" s="14" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
+      <c r="A2" s="5">
         <v>1990</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="17">
         <v>182</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="17">
         <v>10</v>
       </c>
-      <c r="D2" s="4">
-        <v>0</v>
-      </c>
-      <c r="E2" s="4">
-        <v>0</v>
-      </c>
-      <c r="F2" s="4">
-        <v>0</v>
-      </c>
-      <c r="G2" s="4">
+      <c r="D2" s="17">
+        <v>0</v>
+      </c>
+      <c r="E2" s="17">
+        <v>0</v>
+      </c>
+      <c r="F2" s="17">
+        <v>0</v>
+      </c>
+      <c r="G2" s="17">
         <v>286</v>
       </c>
-      <c r="H2" s="4">
-        <v>0</v>
-      </c>
-      <c r="I2" s="9">
-        <v>0</v>
-      </c>
-      <c r="J2" s="10">
-        <v>0</v>
-      </c>
-      <c r="K2" s="11">
+      <c r="H2" s="17">
+        <v>0</v>
+      </c>
+      <c r="I2" s="5">
+        <v>0</v>
+      </c>
+      <c r="J2" s="17">
+        <v>0</v>
+      </c>
+      <c r="K2" s="6">
         <v>12</v>
       </c>
-      <c r="L2" s="10">
+      <c r="L2" s="15">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
+      <c r="A3" s="5">
         <v>1991</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="17">
         <v>196</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="17">
         <v>11</v>
       </c>
-      <c r="D3" s="4">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4">
-        <v>0</v>
-      </c>
-      <c r="F3" s="4">
+      <c r="D3" s="17">
+        <v>0</v>
+      </c>
+      <c r="E3" s="17">
+        <v>0</v>
+      </c>
+      <c r="F3" s="17">
         <v>1</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="17">
         <v>357</v>
       </c>
-      <c r="H3" s="4">
-        <v>0</v>
-      </c>
-      <c r="I3" s="9">
-        <v>0</v>
-      </c>
-      <c r="J3" s="10">
-        <v>0</v>
-      </c>
-      <c r="K3" s="11">
+      <c r="H3" s="17">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0</v>
+      </c>
+      <c r="J3" s="17">
+        <v>0</v>
+      </c>
+      <c r="K3" s="6">
         <v>10</v>
       </c>
-      <c r="L3" s="10">
+      <c r="L3" s="15">
         <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
+      <c r="A4" s="5">
         <v>1992</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="17">
         <v>220</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="17">
         <v>18</v>
       </c>
-      <c r="D4" s="4">
-        <v>0</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="4">
-        <v>0</v>
-      </c>
-      <c r="G4" s="4">
+      <c r="D4" s="17">
+        <v>0</v>
+      </c>
+      <c r="E4" s="17">
+        <v>0</v>
+      </c>
+      <c r="F4" s="17">
+        <v>0</v>
+      </c>
+      <c r="G4" s="17">
         <v>405</v>
       </c>
-      <c r="H4" s="4">
-        <v>0</v>
-      </c>
-      <c r="I4" s="9">
-        <v>0</v>
-      </c>
-      <c r="J4" s="10">
-        <v>0</v>
-      </c>
-      <c r="K4" s="11">
+      <c r="H4" s="17">
+        <v>0</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0</v>
+      </c>
+      <c r="J4" s="17">
+        <v>0</v>
+      </c>
+      <c r="K4" s="6">
         <v>13</v>
       </c>
-      <c r="L4" s="10">
+      <c r="L4" s="15">
         <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
+      <c r="A5" s="5">
         <v>1993</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="17">
         <v>183</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="17">
         <v>11</v>
       </c>
-      <c r="D5" s="4">
-        <v>0</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0</v>
-      </c>
-      <c r="G5" s="4">
+      <c r="D5" s="17">
+        <v>0</v>
+      </c>
+      <c r="E5" s="17">
+        <v>0</v>
+      </c>
+      <c r="F5" s="17">
+        <v>0</v>
+      </c>
+      <c r="G5" s="17">
         <v>476</v>
       </c>
-      <c r="H5" s="4">
-        <v>0</v>
-      </c>
-      <c r="I5" s="9">
-        <v>0</v>
-      </c>
-      <c r="J5" s="10">
-        <v>0</v>
-      </c>
-      <c r="K5" s="11">
+      <c r="H5" s="17">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="17">
+        <v>0</v>
+      </c>
+      <c r="K5" s="6">
         <v>16</v>
       </c>
-      <c r="L5" s="10">
+      <c r="L5" s="15">
         <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
+      <c r="A6" s="5">
         <v>1994</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="17">
         <v>262</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="17">
         <v>20</v>
       </c>
-      <c r="D6" s="4">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0</v>
-      </c>
-      <c r="F6" s="4">
+      <c r="D6" s="17">
+        <v>0</v>
+      </c>
+      <c r="E6" s="17">
+        <v>0</v>
+      </c>
+      <c r="F6" s="17">
         <v>1</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="17">
         <v>487</v>
       </c>
-      <c r="H6" s="4">
-        <v>0</v>
-      </c>
-      <c r="I6" s="9">
-        <v>0</v>
-      </c>
-      <c r="J6" s="10">
-        <v>0</v>
-      </c>
-      <c r="K6" s="11">
+      <c r="H6" s="17">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0</v>
+      </c>
+      <c r="J6" s="17">
+        <v>0</v>
+      </c>
+      <c r="K6" s="6">
         <v>13</v>
       </c>
-      <c r="L6" s="10">
+      <c r="L6" s="15">
         <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
+      <c r="A7" s="5">
         <v>1995</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="17">
         <v>241</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="17">
         <v>26</v>
       </c>
-      <c r="D7" s="4">
-        <v>0</v>
-      </c>
-      <c r="E7" s="4">
-        <v>0</v>
-      </c>
-      <c r="F7" s="4">
-        <v>0</v>
-      </c>
-      <c r="G7" s="4">
+      <c r="D7" s="17">
+        <v>0</v>
+      </c>
+      <c r="E7" s="17">
+        <v>0</v>
+      </c>
+      <c r="F7" s="17">
+        <v>0</v>
+      </c>
+      <c r="G7" s="17">
         <v>538</v>
       </c>
-      <c r="H7" s="4">
-        <v>0</v>
-      </c>
-      <c r="I7" s="9">
+      <c r="H7" s="17">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5">
         <v>1</v>
       </c>
-      <c r="J7" s="10">
-        <v>0</v>
-      </c>
-      <c r="K7" s="11">
+      <c r="J7" s="17">
+        <v>0</v>
+      </c>
+      <c r="K7" s="6">
         <v>12</v>
       </c>
-      <c r="L7" s="10">
+      <c r="L7" s="15">
         <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
+      <c r="A8" s="5">
         <v>1996</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="17">
         <v>260</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="17">
         <v>49</v>
       </c>
-      <c r="D8" s="4">
-        <v>0</v>
-      </c>
-      <c r="E8" s="4">
-        <v>0</v>
-      </c>
-      <c r="F8" s="4">
+      <c r="D8" s="17">
+        <v>0</v>
+      </c>
+      <c r="E8" s="17">
+        <v>0</v>
+      </c>
+      <c r="F8" s="17">
         <v>1</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="17">
         <v>627</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="17">
         <v>1</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="5">
         <v>2</v>
       </c>
-      <c r="J8" s="10">
-        <v>0</v>
-      </c>
-      <c r="K8" s="11">
+      <c r="J8" s="17">
+        <v>0</v>
+      </c>
+      <c r="K8" s="6">
         <v>24</v>
       </c>
-      <c r="L8" s="10">
+      <c r="L8" s="15">
         <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
+      <c r="A9" s="5">
         <v>1997</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="17">
         <v>298</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="17">
         <v>47</v>
       </c>
-      <c r="D9" s="4">
-        <v>0</v>
-      </c>
-      <c r="E9" s="4">
-        <v>0</v>
-      </c>
-      <c r="F9" s="4">
+      <c r="D9" s="17">
+        <v>0</v>
+      </c>
+      <c r="E9" s="17">
+        <v>0</v>
+      </c>
+      <c r="F9" s="17">
         <v>1</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="17">
         <v>663</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="17">
         <v>1</v>
       </c>
-      <c r="I9" s="9">
-        <v>0</v>
-      </c>
-      <c r="J9" s="10">
+      <c r="I9" s="5">
+        <v>0</v>
+      </c>
+      <c r="J9" s="17">
         <v>2</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K9" s="6">
         <v>24</v>
       </c>
-      <c r="L9" s="10">
+      <c r="L9" s="15">
         <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
+      <c r="A10" s="5">
         <v>1998</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="17">
         <v>301</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="17">
         <v>88</v>
       </c>
-      <c r="D10" s="4">
-        <v>0</v>
-      </c>
-      <c r="E10" s="4">
+      <c r="D10" s="17">
+        <v>0</v>
+      </c>
+      <c r="E10" s="17">
         <v>1</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="17">
         <v>2</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="17">
         <v>696</v>
       </c>
-      <c r="H10" s="4">
-        <v>0</v>
-      </c>
-      <c r="I10" s="9">
+      <c r="H10" s="17">
+        <v>0</v>
+      </c>
+      <c r="I10" s="5">
         <v>4</v>
       </c>
-      <c r="J10" s="10">
+      <c r="J10" s="17">
         <v>4</v>
       </c>
-      <c r="K10" s="11">
+      <c r="K10" s="6">
         <v>23</v>
       </c>
-      <c r="L10" s="10">
+      <c r="L10" s="15">
         <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
+      <c r="A11" s="5">
         <v>1999</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="17">
         <v>315</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="17">
         <v>103</v>
       </c>
-      <c r="D11" s="4">
-        <v>0</v>
-      </c>
-      <c r="E11" s="4">
-        <v>0</v>
-      </c>
-      <c r="F11" s="4">
-        <v>0</v>
-      </c>
-      <c r="G11" s="4">
+      <c r="D11" s="17">
+        <v>0</v>
+      </c>
+      <c r="E11" s="17">
+        <v>0</v>
+      </c>
+      <c r="F11" s="17">
+        <v>0</v>
+      </c>
+      <c r="G11" s="17">
         <v>802</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="17">
         <v>3</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="5">
         <v>2</v>
       </c>
-      <c r="J11" s="10">
+      <c r="J11" s="17">
         <v>1</v>
       </c>
-      <c r="K11" s="11">
+      <c r="K11" s="6">
         <v>26</v>
       </c>
-      <c r="L11" s="10">
+      <c r="L11" s="15">
         <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
+      <c r="A12" s="5">
         <v>2000</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="17">
         <v>345</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="17">
         <v>147</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="17">
         <v>2</v>
       </c>
-      <c r="E12" s="4">
-        <v>0</v>
-      </c>
-      <c r="F12" s="4">
+      <c r="E12" s="17">
+        <v>0</v>
+      </c>
+      <c r="F12" s="17">
         <v>3</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="17">
         <v>971</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="17">
         <v>4</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="5">
         <v>3</v>
       </c>
-      <c r="J12" s="10">
+      <c r="J12" s="17">
         <v>4</v>
       </c>
-      <c r="K12" s="11">
+      <c r="K12" s="6">
         <v>30</v>
       </c>
-      <c r="L12" s="10">
+      <c r="L12" s="15">
         <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
+      <c r="A13" s="5">
         <v>2001</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="17">
         <v>444</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="17">
         <v>189</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="17">
         <v>1</v>
       </c>
-      <c r="E13" s="4">
-        <v>0</v>
-      </c>
-      <c r="F13" s="4">
+      <c r="E13" s="17">
+        <v>0</v>
+      </c>
+      <c r="F13" s="17">
         <v>5</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="17">
         <v>1100</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="17">
         <v>2</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="5">
         <v>4</v>
       </c>
-      <c r="J13" s="10">
+      <c r="J13" s="17">
         <v>3</v>
       </c>
-      <c r="K13" s="11">
+      <c r="K13" s="6">
         <v>26</v>
       </c>
-      <c r="L13" s="10">
+      <c r="L13" s="15">
         <v>73</v>
       </c>
       <c r="P13" t="s">
@@ -2205,800 +2241,800 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
+      <c r="A14" s="5">
         <v>2002</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="17">
         <v>361</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="17">
         <v>246</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="17">
         <v>1</v>
       </c>
-      <c r="E14" s="4">
-        <v>0</v>
-      </c>
-      <c r="F14" s="4">
+      <c r="E14" s="17">
+        <v>0</v>
+      </c>
+      <c r="F14" s="17">
         <v>4</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="17">
         <v>1120</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="17">
         <v>6</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="5">
         <v>6</v>
       </c>
-      <c r="J14" s="10">
+      <c r="J14" s="17">
         <v>13</v>
       </c>
-      <c r="K14" s="11">
+      <c r="K14" s="6">
         <v>40</v>
       </c>
-      <c r="L14" s="10">
+      <c r="L14" s="15">
         <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
+      <c r="A15" s="5">
         <v>2003</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="17">
         <v>361</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="17">
         <v>379</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="17">
         <v>2</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="17">
         <v>2</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="17">
         <v>8</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="17">
         <v>1460</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="17">
         <v>5</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="5">
         <v>14</v>
       </c>
-      <c r="J15" s="10">
+      <c r="J15" s="17">
         <v>5</v>
       </c>
-      <c r="K15" s="11">
+      <c r="K15" s="6">
         <v>51</v>
       </c>
-      <c r="L15" s="10">
+      <c r="L15" s="15">
         <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" s="4">
+      <c r="A16" s="5">
         <v>2004</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="17">
         <v>398</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="17">
         <v>535</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="17">
         <v>1</v>
       </c>
-      <c r="E16" s="4">
-        <v>0</v>
-      </c>
-      <c r="F16" s="4">
+      <c r="E16" s="17">
+        <v>0</v>
+      </c>
+      <c r="F16" s="17">
         <v>5</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="17">
         <v>1340</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="17">
         <v>9</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I16" s="5">
         <v>36</v>
       </c>
-      <c r="J16" s="10">
+      <c r="J16" s="17">
         <v>14</v>
       </c>
-      <c r="K16" s="11">
+      <c r="K16" s="6">
         <v>70</v>
       </c>
-      <c r="L16" s="10">
+      <c r="L16" s="15">
         <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="4">
+      <c r="A17" s="5">
         <v>2005</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="17">
         <v>490</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="17">
         <v>537</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="17">
         <v>3</v>
       </c>
-      <c r="E17" s="4">
-        <v>0</v>
-      </c>
-      <c r="F17" s="4">
+      <c r="E17" s="17">
+        <v>0</v>
+      </c>
+      <c r="F17" s="17">
         <v>17</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="17">
         <v>1490</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="17">
         <v>9</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I17" s="5">
         <v>45</v>
       </c>
-      <c r="J17" s="10">
+      <c r="J17" s="17">
         <v>12</v>
       </c>
-      <c r="K17" s="11">
+      <c r="K17" s="6">
         <v>73</v>
       </c>
-      <c r="L17" s="10">
+      <c r="L17" s="15">
         <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="4">
+      <c r="A18" s="5">
         <v>2006</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="17">
         <v>452</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="17">
         <v>733</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="17">
         <v>4</v>
       </c>
-      <c r="E18" s="4">
-        <v>0</v>
-      </c>
-      <c r="F18" s="4">
+      <c r="E18" s="17">
+        <v>0</v>
+      </c>
+      <c r="F18" s="17">
         <v>22</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="17">
         <v>1620</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="17">
         <v>20</v>
       </c>
-      <c r="I18" s="9">
+      <c r="I18" s="5">
         <v>79</v>
       </c>
-      <c r="J18" s="10">
+      <c r="J18" s="17">
         <v>21</v>
       </c>
-      <c r="K18" s="11">
+      <c r="K18" s="6">
         <v>75</v>
       </c>
-      <c r="L18" s="10">
+      <c r="L18" s="15">
         <v>156</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="4">
+      <c r="A19" s="5">
         <v>2007</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="17">
         <v>487</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="17">
         <v>933</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="17">
         <v>13</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="17">
         <v>2</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="17">
         <v>22</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="17">
         <v>1840</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="17">
         <v>21</v>
       </c>
-      <c r="I19" s="9">
+      <c r="I19" s="5">
         <v>101</v>
       </c>
-      <c r="J19" s="10">
+      <c r="J19" s="17">
         <v>25</v>
       </c>
-      <c r="K19" s="11">
+      <c r="K19" s="6">
         <v>80</v>
       </c>
-      <c r="L19" s="10">
+      <c r="L19" s="15">
         <v>202</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="4">
+      <c r="A20" s="5">
         <v>2008</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="17">
         <v>513</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="17">
         <v>1180</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="17">
         <v>15</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="17">
         <v>2</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="17">
         <v>33</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="17">
         <v>1930</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H20" s="18">
         <v>27</v>
       </c>
-      <c r="I20" s="9">
+      <c r="I20" s="5">
         <v>156</v>
       </c>
-      <c r="J20" s="10">
+      <c r="J20" s="17">
         <v>35</v>
       </c>
-      <c r="K20" s="11">
+      <c r="K20" s="6">
         <v>88</v>
       </c>
-      <c r="L20" s="10">
+      <c r="L20" s="15">
         <v>220</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="4">
+      <c r="A21" s="5">
         <v>2009</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="17">
         <v>582</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="17">
         <v>1370</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="17">
         <v>28</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="17">
         <v>4</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="17">
         <v>46</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="17">
         <v>2140</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="17">
         <v>27</v>
       </c>
-      <c r="I21" s="9">
+      <c r="I21" s="5">
         <v>144</v>
       </c>
-      <c r="J21" s="10">
+      <c r="J21" s="17">
         <v>35</v>
       </c>
-      <c r="K21" s="11">
+      <c r="K21" s="6">
         <v>101</v>
       </c>
-      <c r="L21" s="10">
+      <c r="L21" s="15">
         <v>249</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="4">
+      <c r="A22" s="5">
         <v>2010</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="17">
         <v>592</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="17">
         <v>1670</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="17">
         <v>41</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="17">
         <v>2</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="17">
         <v>52</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="17">
         <v>2330</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="17">
         <v>37</v>
       </c>
-      <c r="I22" s="9">
+      <c r="I22" s="5">
         <v>213</v>
       </c>
-      <c r="J22" s="10">
+      <c r="J22" s="17">
         <v>43</v>
       </c>
-      <c r="K22" s="11">
+      <c r="K22" s="6">
         <v>111</v>
       </c>
-      <c r="L22" s="10">
+      <c r="L22" s="15">
         <v>283</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
+      <c r="A23" s="7">
         <v>2011</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="19">
         <v>639</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="19">
         <v>2100</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="19">
         <v>48</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="19">
         <v>8</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="19">
         <v>71</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="19">
         <v>2640</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="19">
         <v>68</v>
       </c>
-      <c r="I23" s="12">
+      <c r="I23" s="7">
         <v>222</v>
       </c>
-      <c r="J23" s="13">
+      <c r="J23" s="19">
         <v>38</v>
       </c>
-      <c r="K23" s="14">
+      <c r="K23" s="8">
         <v>133</v>
       </c>
-      <c r="L23" s="10">
+      <c r="L23" s="15">
         <v>305</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
+      <c r="A24" s="7">
         <v>2012</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="19">
         <v>725</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="19">
         <v>2620</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="19">
         <v>61</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="19">
         <v>11</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="19">
         <v>112</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="19">
         <v>3000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24" s="19">
         <v>67</v>
       </c>
-      <c r="I24" s="12">
+      <c r="I24" s="7">
         <v>252</v>
       </c>
-      <c r="J24" s="13">
+      <c r="J24" s="19">
         <v>65</v>
       </c>
-      <c r="K24" s="14">
+      <c r="K24" s="8">
         <v>155</v>
       </c>
-      <c r="L24" s="10">
+      <c r="L24" s="15">
         <v>376</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
+      <c r="A25" s="7">
         <v>2013</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="19">
         <v>869</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="19">
         <v>3020</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="19">
         <v>136</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="19">
         <v>19</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="19">
         <v>132</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G25" s="19">
         <v>3190</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H25" s="19">
         <v>114</v>
       </c>
-      <c r="I25" s="12">
+      <c r="I25" s="7">
         <v>274</v>
       </c>
-      <c r="J25" s="13">
+      <c r="J25" s="19">
         <v>82</v>
       </c>
-      <c r="K25" s="14">
+      <c r="K25" s="8">
         <v>188</v>
       </c>
-      <c r="L25" s="10">
+      <c r="L25" s="15">
         <v>426</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
+      <c r="A26" s="7">
         <v>2014</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="19">
         <v>1010</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="19">
         <v>3790</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="19">
         <v>209</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="19">
         <v>34</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="19">
         <v>184</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G26" s="19">
         <v>3540</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H26" s="19">
         <v>150</v>
       </c>
-      <c r="I26" s="12">
+      <c r="I26" s="7">
         <v>311</v>
       </c>
-      <c r="J26" s="13">
+      <c r="J26" s="19">
         <v>101</v>
       </c>
-      <c r="K26" s="14">
+      <c r="K26" s="8">
         <v>182</v>
       </c>
-      <c r="L26" s="10">
+      <c r="L26" s="15">
         <v>422</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
+      <c r="A27" s="7">
         <v>2015</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="19">
         <v>1160</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="19">
         <v>4480</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="19">
         <v>335</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="19">
         <v>50</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="19">
         <v>243</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G27" s="19">
         <v>3450</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H27" s="19">
         <v>159</v>
       </c>
-      <c r="I27" s="12">
+      <c r="I27" s="7">
         <v>375</v>
       </c>
-      <c r="J27" s="13">
+      <c r="J27" s="19">
         <v>139</v>
       </c>
-      <c r="K27" s="14">
+      <c r="K27" s="8">
         <v>211</v>
       </c>
-      <c r="L27" s="10">
+      <c r="L27" s="15">
         <v>450</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
+      <c r="A28" s="7">
         <v>2016</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="19">
         <v>1480</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="19">
         <v>5620</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="19">
         <v>556</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="19">
         <v>118</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="19">
         <v>406</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G28" s="19">
         <v>3840</v>
       </c>
-      <c r="H28" s="3">
+      <c r="H28" s="19">
         <v>205</v>
       </c>
-      <c r="I28" s="12">
+      <c r="I28" s="7">
         <v>485</v>
       </c>
-      <c r="J28" s="13">
+      <c r="J28" s="19">
         <v>164</v>
       </c>
-      <c r="K28" s="14">
+      <c r="K28" s="8">
         <v>258</v>
       </c>
-      <c r="L28" s="10">
+      <c r="L28" s="15">
         <v>574</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
+      <c r="A29" s="7">
         <v>2017</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="19">
         <v>1870</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="19">
         <v>6580</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="19">
         <v>802</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="19">
         <v>200</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="19">
         <v>503</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="19">
         <v>4090</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="19">
         <v>284</v>
       </c>
-      <c r="I29" s="12">
+      <c r="I29" s="7">
         <v>486</v>
       </c>
-      <c r="J29" s="13">
+      <c r="J29" s="19">
         <v>201</v>
       </c>
-      <c r="K29" s="14">
+      <c r="K29" s="8">
         <v>297</v>
       </c>
-      <c r="L29" s="10">
+      <c r="L29" s="15">
         <v>593</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="2">
+      <c r="A30" s="9">
         <v>2018</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="20">
         <v>2410</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="20">
         <v>7780</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="20">
         <v>1230</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="20">
         <v>333</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="20">
         <v>738</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G30" s="20">
         <v>4120</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H30" s="20">
         <v>359</v>
       </c>
-      <c r="I30" s="15">
+      <c r="I30" s="9">
         <v>521</v>
       </c>
-      <c r="J30" s="16">
+      <c r="J30" s="20">
         <v>282</v>
       </c>
-      <c r="K30" s="17">
+      <c r="K30" s="10">
         <v>390</v>
       </c>
-      <c r="L30" s="10">
+      <c r="L30" s="15">
         <v>715</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" s="2">
+      <c r="A31" s="9">
         <v>2019</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="20">
         <v>3050</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="20">
         <v>8930</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="20">
         <v>1720</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="20">
         <v>547</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="20">
         <v>1030</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G31" s="20">
         <v>4310</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H31" s="20">
         <v>443</v>
       </c>
-      <c r="I31" s="15">
+      <c r="I31" s="9">
         <v>672</v>
       </c>
-      <c r="J31" s="16">
+      <c r="J31" s="20">
         <v>403</v>
       </c>
-      <c r="K31" s="17">
+      <c r="K31" s="10">
         <v>543</v>
       </c>
-      <c r="L31" s="10">
+      <c r="L31" s="15">
         <v>926</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="2">
+      <c r="A32" s="9">
         <v>2020</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="20">
         <v>3580</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="20">
         <v>10700</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="20">
         <v>2190</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="20">
         <v>815</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="20">
         <v>1490</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G32" s="20">
         <v>4760</v>
       </c>
-      <c r="H32" s="2">
+      <c r="H32" s="20">
         <v>548</v>
       </c>
-      <c r="I32" s="15">
+      <c r="I32" s="9">
         <v>777</v>
       </c>
-      <c r="J32" s="16">
+      <c r="J32" s="20">
         <v>500</v>
       </c>
-      <c r="K32" s="17">
+      <c r="K32" s="10">
         <v>719</v>
       </c>
-      <c r="L32" s="10">
+      <c r="L32" s="15">
         <v>1140</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" s="2">
+      <c r="A33" s="9">
         <v>2021</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="20">
         <v>4970</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="20">
         <v>13300</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="20">
         <v>3240</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="20">
         <v>1460</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33" s="20">
         <v>2460</v>
       </c>
-      <c r="G33" s="2">
+      <c r="G33" s="20">
         <v>5040</v>
       </c>
-      <c r="H33" s="2">
+      <c r="H33" s="20">
         <v>606</v>
       </c>
-      <c r="I33" s="15">
+      <c r="I33" s="9">
         <v>1110</v>
       </c>
-      <c r="J33" s="16">
+      <c r="J33" s="20">
         <v>978</v>
       </c>
-      <c r="K33" s="17">
+      <c r="K33" s="10">
         <v>1640</v>
       </c>
-      <c r="L33" s="10">
+      <c r="L33" s="15">
         <v>2090</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
+      <c r="A34" s="11">
         <v>2022</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="12">
         <v>6580</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="12">
         <v>16000</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="12">
         <v>4270</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="12">
         <v>2120</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34" s="12">
         <v>3880</v>
       </c>
-      <c r="G34" s="2">
+      <c r="G34" s="12">
         <v>5110</v>
       </c>
-      <c r="H34" s="2">
+      <c r="H34" s="12">
         <v>735</v>
       </c>
-      <c r="I34" s="18">
+      <c r="I34" s="11">
         <v>1490</v>
       </c>
-      <c r="J34" s="19">
+      <c r="J34" s="12">
         <v>1690</v>
       </c>
-      <c r="K34" s="20">
+      <c r="K34" s="13">
         <v>2620</v>
       </c>
-      <c r="L34" s="10">
+      <c r="L34" s="16">
         <v>3450</v>
       </c>
     </row>

--- a/Slides/Tex/lecture_includes/google_scholar_did.xlsx
+++ b/Slides/Tex/lecture_includes/google_scholar_did.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scott_cunningham/Documents/Causal-Inference-2/Slides/Tex/lecture_includes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808D25B0-C740-3143-96BA-7589F38F72DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C92D7DC-5737-A843-B8A4-84938C4F697D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-36140" yWindow="500" windowWidth="34420" windowHeight="21100" xr2:uid="{4E948A00-989C-8C4A-9363-AFB9B32B4834}"/>
   </bookViews>
@@ -1702,7 +1702,7 @@
   <dimension ref="A1:P34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+      <selection activeCell="X26" sqref="X26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
